--- a/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>81.32</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>81.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>82.79</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.98</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.98</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.43</v>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.02</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.38</v>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.6</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.43</v>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1509,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.02</v>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1460,14 +1547,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.38</v>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1476,13 +1585,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000501-鄂武商A.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1187</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -611,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>44.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.29</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2360</t>
+          <t>1.6637</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -639,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>013776</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>中泰兴为价值精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>20.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.79</t>
+          <t>85.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0713</t>
+          <t>0.9850</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -677,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001242</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数A</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0374</t>
+          <t>0.7970</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -715,36 +753,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001243</t>
+          <t>010728</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数I</t>
+          <t>中泰兴诚价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>88.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0374</t>
+          <t>0.4920</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -819,26 +933,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.97</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5302</t>
+          <t>0.6477</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -857,26 +971,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>79.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2926</t>
+          <t>0.4737</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -895,26 +1009,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>79.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0979</t>
+          <t>0.3579</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -933,26 +1047,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.97</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0968</t>
+          <t>0.1174</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1309,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1235,26 +1349,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>79.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6477</t>
+          <t>0.5302</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1273,26 +1387,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.37</t>
+          <t>80.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4737</t>
+          <t>0.2926</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1311,26 +1425,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.43</t>
+          <t>81.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3579</t>
+          <t>0.0979</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1349,26 +1463,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>79.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1174</t>
+          <t>0.0968</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,7 +1517,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1443,26 +1557,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.13</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>81.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6637</t>
+          <t>0.2360</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1471,32 +1585,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013776</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰兴为价值精选混合A</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>82.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9850</t>
+          <t>0.0713</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1509,36 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>001242</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>博时中证淘金大数据100指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7970</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1547,112 +1661,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010728</t>
+          <t>001243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
+          <t>博时中证淘金大数据100指数I</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4920</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013777</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中泰兴为价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4224</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010729</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0851</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1666,128 +1704,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.12</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>